--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -497,209 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21643.9</v>
+        <v>22580.18333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>88157.25</v>
+        <v>19768.86666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>20750.48333333333</v>
+        <v>20479.91666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>20201.75</v>
+        <v>19861.95</v>
       </c>
       <c r="E3" t="n">
-        <v>20571.55</v>
+        <v>17682.8</v>
       </c>
       <c r="F3" t="n">
-        <v>18949.81666666667</v>
+        <v>16206.65</v>
       </c>
       <c r="G3" t="n">
-        <v>22772.38333333333</v>
+        <v>17718.86666666666</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41473.98333333333</v>
+        <v>44205.86666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>39301.25</v>
+        <v>41533.35</v>
       </c>
       <c r="C4" t="n">
-        <v>40231.76666666667</v>
+        <v>39970.81666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>39236.55</v>
+        <v>39659.01666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>39155.78333333333</v>
+        <v>38386.55</v>
       </c>
       <c r="F4" t="n">
-        <v>30210.25</v>
+        <v>29740.08333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>26318.13333333333</v>
+        <v>21715.83333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>16357.53333333333</v>
+        <v>14609.4</v>
       </c>
       <c r="B5" t="n">
-        <v>16238.31666666667</v>
+        <v>14272.61666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>14421.96666666667</v>
+        <v>15106.25</v>
       </c>
       <c r="D5" t="n">
-        <v>13788.78333333333</v>
+        <v>14117.88333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>12649.98333333333</v>
+        <v>13796.55</v>
       </c>
       <c r="F5" t="n">
-        <v>1909.733333333333</v>
+        <v>1316.933333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>809.7166666666667</v>
+        <v>888.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40468.08333333334</v>
+        <v>45001.21666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>40343.1</v>
+        <v>43560.08333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>41544.98333333333</v>
+        <v>43368.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>42734.11666666667</v>
+        <v>43777.95</v>
       </c>
       <c r="E6" t="n">
-        <v>41497.36666666667</v>
+        <v>41974.56666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>16220.16666666667</v>
+        <v>16595.6</v>
       </c>
       <c r="G6" t="n">
-        <v>18194.03333333333</v>
+        <v>15157.56666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10257.81666666667</v>
+        <v>10355.16666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>10645.63333333333</v>
+        <v>10559.98333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>10445.51666666667</v>
+        <v>10750.91666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>10688.75</v>
+        <v>11009.41666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>154283.9833333333</v>
+        <v>10493.45</v>
       </c>
       <c r="F7" t="n">
-        <v>5982.116666666667</v>
+        <v>5657.4</v>
       </c>
       <c r="G7" t="n">
-        <v>17371.38333333334</v>
+        <v>13302.11666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10220.31666666667</v>
+        <v>11144.28333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>10455.03333333333</v>
+        <v>11218.73333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>9712.950000000001</v>
+        <v>10946.48333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>10976.08333333333</v>
+        <v>11288.96666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>11314.6</v>
+        <v>10684.48333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>5340.816666666667</v>
+        <v>5559.85</v>
       </c>
       <c r="G8" t="n">
-        <v>11543.98333333333</v>
+        <v>12256.68333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35293.85</v>
+        <v>23881.45</v>
       </c>
       <c r="B9" t="n">
-        <v>99500.33333333331</v>
+        <v>22599.93333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>38707.5</v>
+        <v>20059.68333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>24123.81666666667</v>
+        <v>20685.9</v>
       </c>
       <c r="E9" t="n">
-        <v>21954.61666666666</v>
+        <v>19054.18333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>6793.316666666667</v>
+        <v>8510.166666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>14108.01666666667</v>
+        <v>11818.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>103828.8</v>
+        <v>1455.65</v>
       </c>
       <c r="B10" t="n">
-        <v>1684.883333333333</v>
+        <v>1654.5</v>
       </c>
       <c r="C10" t="n">
-        <v>1511.183333333333</v>
+        <v>1846.15</v>
       </c>
       <c r="D10" t="n">
-        <v>1478.616666666667</v>
+        <v>704.5333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>91993.55</v>
+        <v>2357.716666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>198.0666666666666</v>
+        <v>362.4166666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>351.5833333333333</v>
+        <v>595.6833333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>37882.95</v>
+        <v>106434.5333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>117308.35</v>
+        <v>39581.03333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>38628.21666666667</v>
+        <v>106505.3</v>
       </c>
       <c r="D11" t="n">
-        <v>41262.71666666667</v>
+        <v>40075.98333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>39949.46666666667</v>
+        <v>37651.23333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>6527.966666666666</v>
+        <v>6298.633333333333</v>
       </c>
       <c r="G11" t="n">
-        <v>12789.95</v>
+        <v>9342.700000000001</v>
       </c>
     </row>
   </sheetData>
@@ -783,209 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35091</v>
+        <v>33135</v>
       </c>
       <c r="B3" t="n">
-        <v>114328</v>
+        <v>28150</v>
       </c>
       <c r="C3" t="n">
-        <v>29810</v>
+        <v>27502</v>
       </c>
       <c r="D3" t="n">
-        <v>28568</v>
+        <v>27203</v>
       </c>
       <c r="E3" t="n">
-        <v>30127</v>
+        <v>25710</v>
       </c>
       <c r="F3" t="n">
-        <v>26181</v>
+        <v>22826</v>
       </c>
       <c r="G3" t="n">
-        <v>27939</v>
+        <v>22361</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>49744</v>
+        <v>48678</v>
       </c>
       <c r="B4" t="n">
-        <v>46923</v>
+        <v>46261</v>
       </c>
       <c r="C4" t="n">
-        <v>47910</v>
+        <v>45295</v>
       </c>
       <c r="D4" t="n">
-        <v>46129</v>
+        <v>43879</v>
       </c>
       <c r="E4" t="n">
-        <v>48046</v>
+        <v>42956</v>
       </c>
       <c r="F4" t="n">
-        <v>38412</v>
+        <v>37238</v>
       </c>
       <c r="G4" t="n">
-        <v>36120</v>
+        <v>31123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17708</v>
+        <v>17303</v>
       </c>
       <c r="B5" t="n">
-        <v>18646</v>
+        <v>16801</v>
       </c>
       <c r="C5" t="n">
-        <v>17880</v>
+        <v>16620</v>
       </c>
       <c r="D5" t="n">
-        <v>18773</v>
+        <v>16011</v>
       </c>
       <c r="E5" t="n">
-        <v>16741</v>
+        <v>15654</v>
       </c>
       <c r="F5" t="n">
-        <v>7923</v>
+        <v>7797</v>
       </c>
       <c r="G5" t="n">
-        <v>6135</v>
+        <v>5535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>47826</v>
+        <v>46667</v>
       </c>
       <c r="B6" t="n">
-        <v>49148</v>
+        <v>46869</v>
       </c>
       <c r="C6" t="n">
-        <v>47617</v>
+        <v>45170</v>
       </c>
       <c r="D6" t="n">
-        <v>48147</v>
+        <v>45035</v>
       </c>
       <c r="E6" t="n">
-        <v>43715</v>
+        <v>42361</v>
       </c>
       <c r="F6" t="n">
-        <v>28983</v>
+        <v>27007</v>
       </c>
       <c r="G6" t="n">
-        <v>31979</v>
+        <v>28250</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>32113</v>
+        <v>25921</v>
       </c>
       <c r="B7" t="n">
-        <v>28109</v>
+        <v>24816</v>
       </c>
       <c r="C7" t="n">
-        <v>28888</v>
+        <v>24529</v>
       </c>
       <c r="D7" t="n">
-        <v>26693</v>
+        <v>24435</v>
       </c>
       <c r="E7" t="n">
-        <v>23912</v>
+        <v>22240</v>
       </c>
       <c r="F7" t="n">
-        <v>17888</v>
+        <v>14941</v>
       </c>
       <c r="G7" t="n">
-        <v>40603</v>
+        <v>28269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>33327</v>
+        <v>28152</v>
       </c>
       <c r="B8" t="n">
-        <v>28913</v>
+        <v>27954</v>
       </c>
       <c r="C8" t="n">
-        <v>31819</v>
+        <v>27023</v>
       </c>
       <c r="D8" t="n">
-        <v>28720</v>
+        <v>26673</v>
       </c>
       <c r="E8" t="n">
-        <v>27247</v>
+        <v>25781</v>
       </c>
       <c r="F8" t="n">
-        <v>15895</v>
+        <v>14260</v>
       </c>
       <c r="G8" t="n">
-        <v>29899</v>
+        <v>25267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>43571</v>
+        <v>29876</v>
       </c>
       <c r="B9" t="n">
-        <v>32653</v>
+        <v>28542</v>
       </c>
       <c r="C9" t="n">
-        <v>47337</v>
+        <v>27266</v>
       </c>
       <c r="D9" t="n">
-        <v>32058</v>
+        <v>26960</v>
       </c>
       <c r="E9" t="n">
-        <v>28640</v>
+        <v>24883</v>
       </c>
       <c r="F9" t="n">
-        <v>18376</v>
+        <v>16582</v>
       </c>
       <c r="G9" t="n">
-        <v>22690</v>
+        <v>19102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5557</v>
+        <v>4731</v>
       </c>
       <c r="B10" t="n">
-        <v>5168</v>
+        <v>4509</v>
       </c>
       <c r="C10" t="n">
-        <v>5223</v>
+        <v>4865</v>
       </c>
       <c r="D10" t="n">
-        <v>4967</v>
+        <v>4327</v>
       </c>
       <c r="E10" t="n">
-        <v>4140</v>
+        <v>4945</v>
       </c>
       <c r="F10" t="n">
-        <v>3584</v>
+        <v>3203</v>
       </c>
       <c r="G10" t="n">
-        <v>4224</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>55281</v>
+        <v>51246</v>
       </c>
       <c r="B11" t="n">
-        <v>53347</v>
+        <v>51552</v>
       </c>
       <c r="C11" t="n">
-        <v>54663</v>
+        <v>49948</v>
       </c>
       <c r="D11" t="n">
-        <v>53986</v>
+        <v>50224</v>
       </c>
       <c r="E11" t="n">
-        <v>49906</v>
+        <v>47633</v>
       </c>
       <c r="F11" t="n">
-        <v>18051</v>
+        <v>15797</v>
       </c>
       <c r="G11" t="n">
-        <v>34556</v>
+        <v>23065</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-01-28 09:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-04 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17766</v>
+        <v>19530</v>
       </c>
       <c r="C2" t="n">
-        <v>8824.25</v>
+        <v>11384.63333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-01-28 11:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-04 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7161</v>
+        <v>7192</v>
       </c>
       <c r="C3" t="n">
-        <v>1926.666666666667</v>
+        <v>2263.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-01-28 19:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-04 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75145</v>
+        <v>31505</v>
       </c>
       <c r="C4" t="n">
-        <v>18556.35</v>
+        <v>19089</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-01-28 20:30:00</t>
+          <t>ATV HD 2023-02-04 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38403</v>
+        <v>35024</v>
       </c>
       <c r="C5" t="n">
-        <v>27094.05</v>
+        <v>30800.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-01-28 22:00:00</t>
+          <t>LATINA HD 2023-02-04 22:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21727</v>
+        <v>17535</v>
       </c>
       <c r="C6" t="n">
-        <v>10329.46666666667</v>
+        <v>9548.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-01-28 21:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-04 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33619</v>
+        <v>30289</v>
       </c>
       <c r="C7" t="n">
-        <v>13468.43333333333</v>
+        <v>13716.21666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-01-29 20:00:00</t>
+          <t>LATINA HD 2023-02-05 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48488</v>
+        <v>35594</v>
       </c>
       <c r="C8" t="n">
-        <v>24890.61666666666</v>
+        <v>19445.91666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-01-29 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-05 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>53789</v>
+        <v>40308</v>
       </c>
       <c r="C9" t="n">
-        <v>26582.3</v>
+        <v>20083.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-01-29 19:50:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-02-05 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34972</v>
+        <v>27474</v>
       </c>
       <c r="C10" t="n">
-        <v>12777.41666666667</v>
+        <v>10324.18333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-01-29 21:30:00</t>
+          <t>M DEPORTES HD 2023-02-05 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5866</v>
+        <v>6142</v>
       </c>
       <c r="C11" t="n">
-        <v>704.5</v>
+        <v>1271.266666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -497,209 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22580.18333333333</v>
+        <v>21086.26666666666</v>
       </c>
       <c r="B3" t="n">
-        <v>19768.86666666666</v>
+        <v>17853.16666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>20479.91666666667</v>
+        <v>17645.35</v>
       </c>
       <c r="D3" t="n">
-        <v>19861.95</v>
+        <v>17954.6</v>
       </c>
       <c r="E3" t="n">
-        <v>17682.8</v>
+        <v>145247.1</v>
       </c>
       <c r="F3" t="n">
-        <v>16206.65</v>
+        <v>16131.31666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>17718.86666666666</v>
+        <v>18740.58333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>44205.86666666667</v>
+        <v>37786.26666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>41533.35</v>
+        <v>37482.73333333333</v>
       </c>
       <c r="C4" t="n">
-        <v>39970.81666666667</v>
+        <v>36252.95</v>
       </c>
       <c r="D4" t="n">
-        <v>39659.01666666667</v>
+        <v>37039.41666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>38386.55</v>
+        <v>36735.78333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>29740.08333333333</v>
+        <v>26634.38333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>21715.83333333333</v>
+        <v>21787.13333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14609.4</v>
+        <v>15201.73333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>14272.61666666667</v>
+        <v>11721.61666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>15106.25</v>
+        <v>13846.31666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>14117.88333333333</v>
+        <v>13501.21666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>13796.55</v>
+        <v>13638.73333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1316.933333333333</v>
+        <v>1023.3</v>
       </c>
       <c r="G5" t="n">
-        <v>888.6</v>
+        <v>245411.6833333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45001.21666666667</v>
+        <v>41829.18333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>43560.08333333334</v>
+        <v>33309.91666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>43368.16666666666</v>
+        <v>43006.63333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>43777.95</v>
+        <v>43310.53333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>41974.56666666667</v>
+        <v>42235.16666666666</v>
       </c>
       <c r="F6" t="n">
-        <v>16595.6</v>
+        <v>15776.33333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>15157.56666666667</v>
+        <v>14685.76666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10355.16666666667</v>
+        <v>10733.85</v>
       </c>
       <c r="B7" t="n">
-        <v>10559.98333333333</v>
+        <v>9226.549999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>10750.91666666667</v>
+        <v>10482.23333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>11009.41666666667</v>
+        <v>151607.7833333333</v>
       </c>
       <c r="E7" t="n">
-        <v>10493.45</v>
+        <v>10183.41666666667</v>
       </c>
       <c r="F7" t="n">
-        <v>5657.4</v>
+        <v>5718.566666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>13302.11666666667</v>
+        <v>98335</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11144.28333333333</v>
+        <v>11230.71666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>11218.73333333333</v>
+        <v>10682.25</v>
       </c>
       <c r="C8" t="n">
-        <v>10946.48333333333</v>
+        <v>11238.7</v>
       </c>
       <c r="D8" t="n">
-        <v>11288.96666666667</v>
+        <v>11335.91666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>10684.48333333333</v>
+        <v>11707.03333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>5559.85</v>
+        <v>52639.91666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>12256.68333333333</v>
+        <v>15129</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23881.45</v>
+        <v>87513.26666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>22599.93333333333</v>
+        <v>17672.95</v>
       </c>
       <c r="C9" t="n">
-        <v>20059.68333333333</v>
+        <v>25791.05</v>
       </c>
       <c r="D9" t="n">
-        <v>20685.9</v>
+        <v>86090.91666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>19054.18333333333</v>
+        <v>20434.81666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>8510.166666666666</v>
+        <v>8159.1</v>
       </c>
       <c r="G9" t="n">
-        <v>11818.65</v>
+        <v>13728.78333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1455.65</v>
+        <v>2014.5</v>
       </c>
       <c r="B10" t="n">
-        <v>1654.5</v>
+        <v>1642.816666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>1846.15</v>
+        <v>2066.033333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>704.5333333333333</v>
+        <v>2064.4</v>
       </c>
       <c r="E10" t="n">
-        <v>2357.716666666667</v>
+        <v>1790.75</v>
       </c>
       <c r="F10" t="n">
-        <v>362.4166666666667</v>
+        <v>387.9</v>
       </c>
       <c r="G10" t="n">
-        <v>595.6833333333333</v>
+        <v>742.9333333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106434.5333333333</v>
+        <v>39287.98333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>39581.03333333333</v>
+        <v>32264.56666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>106505.3</v>
+        <v>38844.86666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>40075.98333333333</v>
+        <v>39829.4</v>
       </c>
       <c r="E11" t="n">
-        <v>37651.23333333333</v>
+        <v>39055.8</v>
       </c>
       <c r="F11" t="n">
-        <v>6298.633333333333</v>
+        <v>7852.283333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>9342.700000000001</v>
+        <v>9007.333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -783,209 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33135</v>
+        <v>34232</v>
       </c>
       <c r="B3" t="n">
-        <v>28150</v>
+        <v>25146</v>
       </c>
       <c r="C3" t="n">
-        <v>27502</v>
+        <v>23482</v>
       </c>
       <c r="D3" t="n">
-        <v>27203</v>
+        <v>23584</v>
       </c>
       <c r="E3" t="n">
-        <v>25710</v>
+        <v>22770</v>
       </c>
       <c r="F3" t="n">
-        <v>22826</v>
+        <v>20732</v>
       </c>
       <c r="G3" t="n">
-        <v>22361</v>
+        <v>20765</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48678</v>
+        <v>39303</v>
       </c>
       <c r="B4" t="n">
-        <v>46261</v>
+        <v>40555</v>
       </c>
       <c r="C4" t="n">
-        <v>45295</v>
+        <v>38885</v>
       </c>
       <c r="D4" t="n">
-        <v>43879</v>
+        <v>40022</v>
       </c>
       <c r="E4" t="n">
-        <v>42956</v>
+        <v>39524</v>
       </c>
       <c r="F4" t="n">
-        <v>37238</v>
+        <v>32326</v>
       </c>
       <c r="G4" t="n">
-        <v>31123</v>
+        <v>28182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17303</v>
+        <v>15633</v>
       </c>
       <c r="B5" t="n">
-        <v>16801</v>
+        <v>14870</v>
       </c>
       <c r="C5" t="n">
-        <v>16620</v>
+        <v>15693</v>
       </c>
       <c r="D5" t="n">
-        <v>16011</v>
+        <v>15015</v>
       </c>
       <c r="E5" t="n">
-        <v>15654</v>
+        <v>15042</v>
       </c>
       <c r="F5" t="n">
-        <v>7797</v>
+        <v>5376</v>
       </c>
       <c r="G5" t="n">
-        <v>5535</v>
+        <v>10617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46667</v>
+        <v>41600</v>
       </c>
       <c r="B6" t="n">
-        <v>46869</v>
+        <v>37045</v>
       </c>
       <c r="C6" t="n">
-        <v>45170</v>
+        <v>43440</v>
       </c>
       <c r="D6" t="n">
-        <v>45035</v>
+        <v>41426</v>
       </c>
       <c r="E6" t="n">
-        <v>42361</v>
+        <v>41096</v>
       </c>
       <c r="F6" t="n">
-        <v>27007</v>
+        <v>24161</v>
       </c>
       <c r="G6" t="n">
-        <v>28250</v>
+        <v>27415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>25921</v>
+        <v>30341</v>
       </c>
       <c r="B7" t="n">
-        <v>24816</v>
+        <v>21783</v>
       </c>
       <c r="C7" t="n">
-        <v>24529</v>
+        <v>23905</v>
       </c>
       <c r="D7" t="n">
-        <v>24435</v>
+        <v>22683</v>
       </c>
       <c r="E7" t="n">
-        <v>22240</v>
+        <v>21618</v>
       </c>
       <c r="F7" t="n">
-        <v>14941</v>
+        <v>13963</v>
       </c>
       <c r="G7" t="n">
-        <v>28269</v>
+        <v>26982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28152</v>
+        <v>25595</v>
       </c>
       <c r="B8" t="n">
-        <v>27954</v>
+        <v>24035</v>
       </c>
       <c r="C8" t="n">
-        <v>27023</v>
+        <v>26758</v>
       </c>
       <c r="D8" t="n">
-        <v>26673</v>
+        <v>26079</v>
       </c>
       <c r="E8" t="n">
-        <v>25781</v>
+        <v>26082</v>
       </c>
       <c r="F8" t="n">
-        <v>14260</v>
+        <v>13713</v>
       </c>
       <c r="G8" t="n">
-        <v>25267</v>
+        <v>27751</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29876</v>
+        <v>26975</v>
       </c>
       <c r="B9" t="n">
-        <v>28542</v>
+        <v>22008</v>
       </c>
       <c r="C9" t="n">
-        <v>27266</v>
+        <v>30427</v>
       </c>
       <c r="D9" t="n">
-        <v>26960</v>
+        <v>27205</v>
       </c>
       <c r="E9" t="n">
-        <v>24883</v>
+        <v>25545</v>
       </c>
       <c r="F9" t="n">
-        <v>16582</v>
+        <v>16306</v>
       </c>
       <c r="G9" t="n">
-        <v>19102</v>
+        <v>18426</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4731</v>
+        <v>4977</v>
       </c>
       <c r="B10" t="n">
-        <v>4509</v>
+        <v>4341</v>
       </c>
       <c r="C10" t="n">
-        <v>4865</v>
+        <v>4841</v>
       </c>
       <c r="D10" t="n">
-        <v>4327</v>
+        <v>4763</v>
       </c>
       <c r="E10" t="n">
-        <v>4945</v>
+        <v>4526</v>
       </c>
       <c r="F10" t="n">
-        <v>3203</v>
+        <v>3118</v>
       </c>
       <c r="G10" t="n">
-        <v>4799</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>51246</v>
+        <v>48377</v>
       </c>
       <c r="B11" t="n">
-        <v>51552</v>
+        <v>42343</v>
       </c>
       <c r="C11" t="n">
-        <v>49948</v>
+        <v>48500</v>
       </c>
       <c r="D11" t="n">
-        <v>50224</v>
+        <v>48748</v>
       </c>
       <c r="E11" t="n">
-        <v>47633</v>
+        <v>47100</v>
       </c>
       <c r="F11" t="n">
-        <v>15797</v>
+        <v>15963</v>
       </c>
       <c r="G11" t="n">
-        <v>23065</v>
+        <v>22350</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-04 09:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-18 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19530</v>
+        <v>16756</v>
       </c>
       <c r="C2" t="n">
-        <v>11384.63333333333</v>
+        <v>9858.033333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-04 11:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-18 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7192</v>
+        <v>6146</v>
       </c>
       <c r="C3" t="n">
-        <v>2263.85</v>
+        <v>1908.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-04 19:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-18 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31505</v>
+        <v>28974</v>
       </c>
       <c r="C4" t="n">
-        <v>19089</v>
+        <v>18786.63333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-02-04 20:30:00</t>
+          <t>ATV HD 2023-02-18 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35024</v>
+        <v>33584</v>
       </c>
       <c r="C5" t="n">
-        <v>30800.65</v>
+        <v>27682.46666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-02-04 22:00:00</t>
+          <t>LATINA HD 2023-02-18 22:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17535</v>
+        <v>16830</v>
       </c>
       <c r="C6" t="n">
-        <v>9548.35</v>
+        <v>9773.133333333331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-04 21:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-18 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30289</v>
+        <v>28921</v>
       </c>
       <c r="C7" t="n">
-        <v>13716.21666666667</v>
+        <v>13863.03333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-02-05 20:00:00</t>
+          <t>LATINA HD 2023-02-19 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35594</v>
+        <v>33829</v>
       </c>
       <c r="C8" t="n">
-        <v>19445.91666666667</v>
+        <v>132700.3666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-05 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-02-19 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40308</v>
+        <v>39591</v>
       </c>
       <c r="C9" t="n">
-        <v>20083.7</v>
+        <v>19999.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-02-05 19:50:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-02-19 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27474</v>
+        <v>27047</v>
       </c>
       <c r="C10" t="n">
-        <v>10324.18333333333</v>
+        <v>10808.63333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-02-05 21:30:00</t>
+          <t>M DEPORTES HD 2023-02-19 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6142</v>
+        <v>6869</v>
       </c>
       <c r="C11" t="n">
-        <v>1271.266666666667</v>
+        <v>1614.883333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -497,209 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21086.26666666666</v>
+        <v>16753.21666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>17853.16666666667</v>
+        <v>15469.15</v>
       </c>
       <c r="C3" t="n">
-        <v>17645.35</v>
+        <v>16331.76666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>17954.6</v>
+        <v>15093.46666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>145247.1</v>
+        <v>15091.11666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>16131.31666666667</v>
+        <v>10837.25</v>
       </c>
       <c r="G3" t="n">
-        <v>18740.58333333333</v>
+        <v>16540.88333333334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>37786.26666666667</v>
+        <v>34683.45</v>
       </c>
       <c r="B4" t="n">
-        <v>37482.73333333333</v>
+        <v>33624.36666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>36252.95</v>
+        <v>33898.81666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>37039.41666666666</v>
+        <v>32139.51666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>36735.78333333333</v>
+        <v>31804.2</v>
       </c>
       <c r="F4" t="n">
-        <v>26634.38333333333</v>
+        <v>18092.26666666666</v>
       </c>
       <c r="G4" t="n">
-        <v>21787.13333333333</v>
+        <v>17848.68333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15201.73333333333</v>
+        <v>15391.96666666667</v>
       </c>
       <c r="B5" t="n">
-        <v>11721.61666666667</v>
+        <v>12249.38333333333</v>
       </c>
       <c r="C5" t="n">
-        <v>13846.31666666667</v>
+        <v>10483.51666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>13501.21666666667</v>
+        <v>9738.933333333332</v>
       </c>
       <c r="E5" t="n">
-        <v>13638.73333333333</v>
+        <v>11982.78333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>1023.3</v>
+        <v>665.15</v>
       </c>
       <c r="G5" t="n">
-        <v>245411.6833333333</v>
+        <v>902.9833333333332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41829.18333333333</v>
+        <v>29701.25</v>
       </c>
       <c r="B6" t="n">
-        <v>33309.91666666666</v>
+        <v>27427.93333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>43006.63333333333</v>
+        <v>22775.76666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>43310.53333333333</v>
+        <v>22965.81666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>42235.16666666666</v>
+        <v>26378.1</v>
       </c>
       <c r="F6" t="n">
-        <v>15776.33333333333</v>
+        <v>10079.81666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>14685.76666666667</v>
+        <v>14091.58333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10733.85</v>
+        <v>6763.983333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>9226.549999999999</v>
+        <v>6271.266666666666</v>
       </c>
       <c r="C7" t="n">
-        <v>10482.23333333333</v>
+        <v>6787.833333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>151607.7833333333</v>
+        <v>5494.6</v>
       </c>
       <c r="E7" t="n">
-        <v>10183.41666666667</v>
+        <v>6023.766666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>5718.566666666667</v>
+        <v>7453.116666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>98335</v>
+        <v>10500.45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11230.71666666667</v>
+        <v>7580.783333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>10682.25</v>
+        <v>7612.85</v>
       </c>
       <c r="C8" t="n">
-        <v>11238.7</v>
+        <v>7294.283333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>11335.91666666667</v>
+        <v>5652.866666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>11707.03333333333</v>
+        <v>6799.25</v>
       </c>
       <c r="F8" t="n">
-        <v>52639.91666666666</v>
+        <v>4193.416666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>15129</v>
+        <v>14389.46666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87513.26666666666</v>
+        <v>23129.26666666666</v>
       </c>
       <c r="B9" t="n">
-        <v>17672.95</v>
+        <v>22411.4</v>
       </c>
       <c r="C9" t="n">
-        <v>25791.05</v>
+        <v>20988.73333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>86090.91666666667</v>
+        <v>16787.43333333333</v>
       </c>
       <c r="E9" t="n">
-        <v>20434.81666666667</v>
+        <v>17120.08333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>8159.1</v>
+        <v>5319.466666666666</v>
       </c>
       <c r="G9" t="n">
-        <v>13728.78333333333</v>
+        <v>9492.383333333331</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2014.5</v>
+        <v>2761.15</v>
       </c>
       <c r="B10" t="n">
-        <v>1642.816666666667</v>
+        <v>2559.15</v>
       </c>
       <c r="C10" t="n">
-        <v>2066.033333333333</v>
+        <v>3313.7</v>
       </c>
       <c r="D10" t="n">
-        <v>2064.4</v>
+        <v>4822.366666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1790.75</v>
+        <v>2645.066666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>387.9</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>742.9333333333333</v>
+        <v>729.0833333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39287.98333333333</v>
+        <v>27420.9</v>
       </c>
       <c r="B11" t="n">
-        <v>32264.56666666667</v>
+        <v>81023.31666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>38844.86666666667</v>
+        <v>29417.05</v>
       </c>
       <c r="D11" t="n">
-        <v>39829.4</v>
+        <v>20232.08333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>39055.8</v>
+        <v>24242.15</v>
       </c>
       <c r="F11" t="n">
-        <v>7852.283333333334</v>
+        <v>4495.116666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>9007.333333333334</v>
+        <v>7282.316666666667</v>
       </c>
     </row>
   </sheetData>
@@ -783,209 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34232</v>
+        <v>53873</v>
       </c>
       <c r="B3" t="n">
-        <v>25146</v>
+        <v>18168</v>
       </c>
       <c r="C3" t="n">
-        <v>23482</v>
+        <v>17563</v>
       </c>
       <c r="D3" t="n">
-        <v>23584</v>
+        <v>17281</v>
       </c>
       <c r="E3" t="n">
-        <v>22770</v>
+        <v>17528</v>
       </c>
       <c r="F3" t="n">
-        <v>20732</v>
+        <v>13126</v>
       </c>
       <c r="G3" t="n">
-        <v>20765</v>
+        <v>18054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>39303</v>
+        <v>32567</v>
       </c>
       <c r="B4" t="n">
-        <v>40555</v>
+        <v>31526</v>
       </c>
       <c r="C4" t="n">
-        <v>38885</v>
+        <v>31882</v>
       </c>
       <c r="D4" t="n">
-        <v>40022</v>
+        <v>31106</v>
       </c>
       <c r="E4" t="n">
-        <v>39524</v>
+        <v>31628</v>
       </c>
       <c r="F4" t="n">
-        <v>32326</v>
+        <v>21624</v>
       </c>
       <c r="G4" t="n">
-        <v>28182</v>
+        <v>23973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15633</v>
+        <v>14743</v>
       </c>
       <c r="B5" t="n">
-        <v>14870</v>
+        <v>13464</v>
       </c>
       <c r="C5" t="n">
-        <v>15693</v>
+        <v>13096</v>
       </c>
       <c r="D5" t="n">
-        <v>15015</v>
+        <v>11684</v>
       </c>
       <c r="E5" t="n">
-        <v>15042</v>
+        <v>11354</v>
       </c>
       <c r="F5" t="n">
-        <v>5376</v>
+        <v>3526</v>
       </c>
       <c r="G5" t="n">
-        <v>10617</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41600</v>
+        <v>28671</v>
       </c>
       <c r="B6" t="n">
-        <v>37045</v>
+        <v>28186</v>
       </c>
       <c r="C6" t="n">
-        <v>43440</v>
+        <v>32323</v>
       </c>
       <c r="D6" t="n">
-        <v>41426</v>
+        <v>31249</v>
       </c>
       <c r="E6" t="n">
-        <v>41096</v>
+        <v>25316</v>
       </c>
       <c r="F6" t="n">
-        <v>24161</v>
+        <v>16584</v>
       </c>
       <c r="G6" t="n">
-        <v>27415</v>
+        <v>24098</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30341</v>
+        <v>15354</v>
       </c>
       <c r="B7" t="n">
-        <v>21783</v>
+        <v>13875</v>
       </c>
       <c r="C7" t="n">
-        <v>23905</v>
+        <v>14451</v>
       </c>
       <c r="D7" t="n">
-        <v>22683</v>
+        <v>17371</v>
       </c>
       <c r="E7" t="n">
-        <v>21618</v>
+        <v>11533</v>
       </c>
       <c r="F7" t="n">
-        <v>13963</v>
+        <v>14453</v>
       </c>
       <c r="G7" t="n">
-        <v>26982</v>
+        <v>21157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>25595</v>
+        <v>18564</v>
       </c>
       <c r="B8" t="n">
-        <v>24035</v>
+        <v>17871</v>
       </c>
       <c r="C8" t="n">
-        <v>26758</v>
+        <v>17327</v>
       </c>
       <c r="D8" t="n">
-        <v>26079</v>
+        <v>20191</v>
       </c>
       <c r="E8" t="n">
-        <v>26082</v>
+        <v>15840</v>
       </c>
       <c r="F8" t="n">
-        <v>13713</v>
+        <v>9845</v>
       </c>
       <c r="G8" t="n">
-        <v>27751</v>
+        <v>22392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>26975</v>
+        <v>23230</v>
       </c>
       <c r="B9" t="n">
-        <v>22008</v>
+        <v>23210</v>
       </c>
       <c r="C9" t="n">
-        <v>30427</v>
+        <v>22348</v>
       </c>
       <c r="D9" t="n">
-        <v>27205</v>
+        <v>22568</v>
       </c>
       <c r="E9" t="n">
-        <v>25545</v>
+        <v>18854</v>
       </c>
       <c r="F9" t="n">
-        <v>16306</v>
+        <v>11235</v>
       </c>
       <c r="G9" t="n">
-        <v>18426</v>
+        <v>12673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4977</v>
+        <v>5490</v>
       </c>
       <c r="B10" t="n">
-        <v>4341</v>
+        <v>5506</v>
       </c>
       <c r="C10" t="n">
-        <v>4841</v>
+        <v>6113</v>
       </c>
       <c r="D10" t="n">
-        <v>4763</v>
+        <v>14183</v>
       </c>
       <c r="E10" t="n">
-        <v>4526</v>
+        <v>5499</v>
       </c>
       <c r="F10" t="n">
-        <v>3118</v>
+        <v>2977</v>
       </c>
       <c r="G10" t="n">
-        <v>5010</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>48377</v>
+        <v>33522</v>
       </c>
       <c r="B11" t="n">
-        <v>42343</v>
+        <v>33532</v>
       </c>
       <c r="C11" t="n">
-        <v>48500</v>
+        <v>36812</v>
       </c>
       <c r="D11" t="n">
-        <v>48748</v>
+        <v>34670</v>
       </c>
       <c r="E11" t="n">
-        <v>47100</v>
+        <v>29476</v>
       </c>
       <c r="F11" t="n">
-        <v>15963</v>
+        <v>10520</v>
       </c>
       <c r="G11" t="n">
-        <v>22350</v>
+        <v>17873</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-18 09:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-04-22 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16756</v>
+        <v>10248</v>
       </c>
       <c r="C2" t="n">
-        <v>9858.033333333333</v>
+        <v>5882.833333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-18 11:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-04-22 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6146</v>
+        <v>3908</v>
       </c>
       <c r="C3" t="n">
-        <v>1908.3</v>
+        <v>1334.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-18 19:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-04-22 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28974</v>
+        <v>19344</v>
       </c>
       <c r="C4" t="n">
-        <v>18786.63333333333</v>
+        <v>11715.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-02-18 20:30:00</t>
+          <t>ATV HD 2023-04-22 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33584</v>
+        <v>23267</v>
       </c>
       <c r="C5" t="n">
-        <v>27682.46666666667</v>
+        <v>18218.68333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-02-18 22:00:00</t>
+          <t>LATINA HD 2023-04-22 22:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16830</v>
+        <v>11146</v>
       </c>
       <c r="C6" t="n">
-        <v>9773.133333333331</v>
+        <v>5346.983333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-18 21:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-04-22 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28921</v>
+        <v>20333</v>
       </c>
       <c r="C7" t="n">
-        <v>13863.03333333333</v>
+        <v>9602.083333333334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-02-19 20:00:00</t>
+          <t>LATINA HD 2023-04-23 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33829</v>
+        <v>26291</v>
       </c>
       <c r="C8" t="n">
-        <v>132700.3666666667</v>
+        <v>14991.08333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-02-19 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-04-23 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39591</v>
+        <v>31844</v>
       </c>
       <c r="C9" t="n">
-        <v>19999.5</v>
+        <v>17943.83333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-02-19 19:50:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-04-23 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27047</v>
+        <v>21656</v>
       </c>
       <c r="C10" t="n">
-        <v>10808.63333333333</v>
+        <v>8920.616666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-02-19 21:30:00</t>
+          <t>M DEPORTES HD 2023-04-23 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6869</v>
+        <v>7575</v>
       </c>
       <c r="C11" t="n">
-        <v>1614.883333333333</v>
+        <v>1940.05</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -497,209 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16753.21666666667</v>
+        <v>9480.216666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>15469.15</v>
+        <v>15170.91666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>16331.76666666667</v>
+        <v>14632.18333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>15093.46666666667</v>
+        <v>15329.8</v>
       </c>
       <c r="E3" t="n">
-        <v>15091.11666666667</v>
+        <v>14687.51666666667</v>
       </c>
       <c r="F3" t="n">
-        <v>10837.25</v>
+        <v>10771.25</v>
       </c>
       <c r="G3" t="n">
-        <v>16540.88333333334</v>
+        <v>12100.55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>34683.45</v>
+        <v>19472.98333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>33624.36666666667</v>
+        <v>33179.33333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>33898.81666666667</v>
+        <v>31857.26666666666</v>
       </c>
       <c r="D4" t="n">
-        <v>32139.51666666666</v>
+        <v>30506.55</v>
       </c>
       <c r="E4" t="n">
-        <v>31804.2</v>
+        <v>30381.88333333333</v>
       </c>
       <c r="F4" t="n">
-        <v>18092.26666666666</v>
+        <v>16764.53333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>17848.68333333333</v>
+        <v>14227.85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15391.96666666667</v>
+        <v>5234.966666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>12249.38333333333</v>
+        <v>9964.35</v>
       </c>
       <c r="C5" t="n">
-        <v>10483.51666666667</v>
+        <v>92050.93333333332</v>
       </c>
       <c r="D5" t="n">
-        <v>9738.933333333332</v>
+        <v>8852.799999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>11982.78333333333</v>
+        <v>8981.883333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>665.15</v>
+        <v>912.15</v>
       </c>
       <c r="G5" t="n">
-        <v>902.9833333333332</v>
+        <v>331.2333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29701.25</v>
+        <v>25599.68333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>27427.93333333333</v>
+        <v>25041.31666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>22775.76666666666</v>
+        <v>18759.98333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>22965.81666666667</v>
+        <v>23623.23333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>26378.1</v>
+        <v>24043.41666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>10079.81666666667</v>
+        <v>10435.78333333333</v>
       </c>
       <c r="G6" t="n">
-        <v>14091.58333333333</v>
+        <v>10232.56666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6763.983333333334</v>
+        <v>5729.983333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>6271.266666666666</v>
+        <v>6309.666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>6787.833333333333</v>
+        <v>6757.516666666666</v>
       </c>
       <c r="D7" t="n">
-        <v>5494.6</v>
+        <v>6836.15</v>
       </c>
       <c r="E7" t="n">
-        <v>6023.766666666666</v>
+        <v>7612.583333333333</v>
       </c>
       <c r="F7" t="n">
-        <v>7453.116666666667</v>
+        <v>6551.366666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>10500.45</v>
+        <v>7439.416666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7580.783333333334</v>
+        <v>6297.65</v>
       </c>
       <c r="B8" t="n">
-        <v>7612.85</v>
+        <v>6369.266666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>7294.283333333334</v>
+        <v>9206.233333333334</v>
       </c>
       <c r="D8" t="n">
-        <v>5652.866666666667</v>
+        <v>6457.433333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>6799.25</v>
+        <v>6645.633333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>4193.416666666667</v>
+        <v>4402.216666666666</v>
       </c>
       <c r="G8" t="n">
-        <v>14389.46666666667</v>
+        <v>12317.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23129.26666666666</v>
+        <v>17175.31666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>22411.4</v>
+        <v>19753.83333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>20988.73333333333</v>
+        <v>16566.85</v>
       </c>
       <c r="D9" t="n">
-        <v>16787.43333333333</v>
+        <v>15245.05</v>
       </c>
       <c r="E9" t="n">
-        <v>17120.08333333333</v>
+        <v>15624.43333333333</v>
       </c>
       <c r="F9" t="n">
-        <v>5319.466666666666</v>
+        <v>5077.433333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>9492.383333333331</v>
+        <v>9232.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2761.15</v>
+        <v>2350.35</v>
       </c>
       <c r="B10" t="n">
-        <v>2559.15</v>
+        <v>2594.933333333333</v>
       </c>
       <c r="C10" t="n">
-        <v>3313.7</v>
+        <v>3457.666666666667</v>
       </c>
       <c r="D10" t="n">
-        <v>4822.366666666667</v>
+        <v>3134.616666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>2645.066666666667</v>
+        <v>1670.566666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>97.09999999999999</v>
+        <v>351.6833333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>729.0833333333334</v>
+        <v>1438.883333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>27420.9</v>
+        <v>20059.26666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>81023.31666666667</v>
+        <v>20854.63333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>29417.05</v>
+        <v>22300.95</v>
       </c>
       <c r="D11" t="n">
-        <v>20232.08333333333</v>
+        <v>21410.56666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>24242.15</v>
+        <v>22859.66666666667</v>
       </c>
       <c r="F11" t="n">
-        <v>4495.116666666667</v>
+        <v>5231.533333333334</v>
       </c>
       <c r="G11" t="n">
-        <v>7282.316666666667</v>
+        <v>6140.833333333333</v>
       </c>
     </row>
   </sheetData>
@@ -783,209 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53873</v>
+        <v>13703</v>
       </c>
       <c r="B3" t="n">
-        <v>18168</v>
+        <v>17317</v>
       </c>
       <c r="C3" t="n">
-        <v>17563</v>
+        <v>17002</v>
       </c>
       <c r="D3" t="n">
-        <v>17281</v>
+        <v>17608</v>
       </c>
       <c r="E3" t="n">
-        <v>17528</v>
+        <v>16729</v>
       </c>
       <c r="F3" t="n">
-        <v>13126</v>
+        <v>13664</v>
       </c>
       <c r="G3" t="n">
-        <v>18054</v>
+        <v>13153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>32567</v>
+        <v>22717</v>
       </c>
       <c r="B4" t="n">
-        <v>31526</v>
+        <v>30603</v>
       </c>
       <c r="C4" t="n">
-        <v>31882</v>
+        <v>30437</v>
       </c>
       <c r="D4" t="n">
-        <v>31106</v>
+        <v>30276</v>
       </c>
       <c r="E4" t="n">
-        <v>31628</v>
+        <v>29527</v>
       </c>
       <c r="F4" t="n">
-        <v>21624</v>
+        <v>21413</v>
       </c>
       <c r="G4" t="n">
-        <v>23973</v>
+        <v>17988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14743</v>
+        <v>6792</v>
       </c>
       <c r="B5" t="n">
-        <v>13464</v>
+        <v>10310</v>
       </c>
       <c r="C5" t="n">
-        <v>13096</v>
+        <v>50801</v>
       </c>
       <c r="D5" t="n">
-        <v>11684</v>
+        <v>9764</v>
       </c>
       <c r="E5" t="n">
-        <v>11354</v>
+        <v>9656</v>
       </c>
       <c r="F5" t="n">
-        <v>3526</v>
+        <v>3587</v>
       </c>
       <c r="G5" t="n">
-        <v>4249</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>28671</v>
+        <v>24935</v>
       </c>
       <c r="B6" t="n">
-        <v>28186</v>
+        <v>28475</v>
       </c>
       <c r="C6" t="n">
-        <v>32323</v>
+        <v>31345</v>
       </c>
       <c r="D6" t="n">
-        <v>31249</v>
+        <v>28404</v>
       </c>
       <c r="E6" t="n">
-        <v>25316</v>
+        <v>24291</v>
       </c>
       <c r="F6" t="n">
-        <v>16584</v>
+        <v>16106</v>
       </c>
       <c r="G6" t="n">
-        <v>24098</v>
+        <v>22021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15354</v>
+        <v>13236</v>
       </c>
       <c r="B7" t="n">
-        <v>13875</v>
+        <v>16428</v>
       </c>
       <c r="C7" t="n">
-        <v>14451</v>
+        <v>16784</v>
       </c>
       <c r="D7" t="n">
-        <v>17371</v>
+        <v>19146</v>
       </c>
       <c r="E7" t="n">
-        <v>11533</v>
+        <v>13582</v>
       </c>
       <c r="F7" t="n">
-        <v>14453</v>
+        <v>13077</v>
       </c>
       <c r="G7" t="n">
-        <v>21157</v>
+        <v>17885</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>18564</v>
+        <v>15003</v>
       </c>
       <c r="B8" t="n">
-        <v>17871</v>
+        <v>19802</v>
       </c>
       <c r="C8" t="n">
-        <v>17327</v>
+        <v>20901</v>
       </c>
       <c r="D8" t="n">
-        <v>20191</v>
+        <v>17816</v>
       </c>
       <c r="E8" t="n">
-        <v>15840</v>
+        <v>15277</v>
       </c>
       <c r="F8" t="n">
-        <v>9845</v>
+        <v>9796</v>
       </c>
       <c r="G8" t="n">
-        <v>22392</v>
+        <v>20311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23230</v>
+        <v>19131</v>
       </c>
       <c r="B9" t="n">
-        <v>23210</v>
+        <v>24877</v>
       </c>
       <c r="C9" t="n">
-        <v>22348</v>
+        <v>18952</v>
       </c>
       <c r="D9" t="n">
-        <v>22568</v>
+        <v>19052</v>
       </c>
       <c r="E9" t="n">
-        <v>18854</v>
+        <v>17619</v>
       </c>
       <c r="F9" t="n">
-        <v>11235</v>
+        <v>10817</v>
       </c>
       <c r="G9" t="n">
-        <v>12673</v>
+        <v>12345</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5490</v>
+        <v>5335</v>
       </c>
       <c r="B10" t="n">
-        <v>5506</v>
+        <v>7228</v>
       </c>
       <c r="C10" t="n">
-        <v>6113</v>
+        <v>6447</v>
       </c>
       <c r="D10" t="n">
-        <v>14183</v>
+        <v>8086</v>
       </c>
       <c r="E10" t="n">
-        <v>5499</v>
+        <v>4325</v>
       </c>
       <c r="F10" t="n">
-        <v>2977</v>
+        <v>3052</v>
       </c>
       <c r="G10" t="n">
-        <v>5249</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>33522</v>
+        <v>25530</v>
       </c>
       <c r="B11" t="n">
-        <v>33532</v>
+        <v>32094</v>
       </c>
       <c r="C11" t="n">
-        <v>36812</v>
+        <v>34348</v>
       </c>
       <c r="D11" t="n">
-        <v>34670</v>
+        <v>34683</v>
       </c>
       <c r="E11" t="n">
-        <v>29476</v>
+        <v>28429</v>
       </c>
       <c r="F11" t="n">
-        <v>10520</v>
+        <v>10790</v>
       </c>
       <c r="G11" t="n">
-        <v>17873</v>
+        <v>15188</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-04-22 09:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-06 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10248</v>
+        <v>10689</v>
       </c>
       <c r="C2" t="n">
-        <v>5882.833333333333</v>
+        <v>6027.566666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-04-22 11:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-06 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3908</v>
+        <v>4087</v>
       </c>
       <c r="C3" t="n">
-        <v>1334.15</v>
+        <v>1422.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-04-22 19:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-06 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19344</v>
+        <v>18918</v>
       </c>
       <c r="C4" t="n">
-        <v>11715.35</v>
+        <v>12180.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-04-22 20:30:00</t>
+          <t>ATV HD 2023-05-06 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23267</v>
+        <v>23065</v>
       </c>
       <c r="C5" t="n">
-        <v>18218.68333333333</v>
+        <v>18786.03333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-04-22 22:00:00</t>
+          <t>LATINA HD 2023-05-06 22:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11146</v>
+        <v>12453</v>
       </c>
       <c r="C6" t="n">
-        <v>5346.983333333334</v>
+        <v>8685.433333333332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-04-22 21:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-06 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20333</v>
+        <v>20152</v>
       </c>
       <c r="C7" t="n">
-        <v>9602.083333333334</v>
+        <v>9938.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-04-23 20:00:00</t>
+          <t>LATINA HD 2023-05-07 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26291</v>
+        <v>23469</v>
       </c>
       <c r="C8" t="n">
-        <v>14991.08333333333</v>
+        <v>10983.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-04-23 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-07 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31844</v>
+        <v>28561</v>
       </c>
       <c r="C9" t="n">
-        <v>17943.83333333333</v>
+        <v>14151.45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-04-23 19:50:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-05-07 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21656</v>
+        <v>18915</v>
       </c>
       <c r="C10" t="n">
-        <v>8920.616666666667</v>
+        <v>7297.416666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-04-23 21:30:00</t>
+          <t>M DEPORTES HD 2023-05-07 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7575</v>
+        <v>27319</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.05</v>
+        <v>3465.7</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -497,209 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9480.216666666667</v>
+        <v>15673.63333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>15170.91666666667</v>
+        <v>139525.8166666667</v>
       </c>
       <c r="C3" t="n">
-        <v>14632.18333333333</v>
+        <v>14765.83333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>15329.8</v>
+        <v>14704.45</v>
       </c>
       <c r="E3" t="n">
-        <v>14687.51666666667</v>
+        <v>13657</v>
       </c>
       <c r="F3" t="n">
-        <v>10771.25</v>
+        <v>9942.983333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>12100.55</v>
+        <v>11724.56666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19472.98333333333</v>
+        <v>31340.75</v>
       </c>
       <c r="B4" t="n">
-        <v>33179.33333333334</v>
+        <v>30514.76666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>31857.26666666666</v>
+        <v>29287.65</v>
       </c>
       <c r="D4" t="n">
-        <v>30506.55</v>
+        <v>29386.88333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>30381.88333333333</v>
+        <v>27483.7</v>
       </c>
       <c r="F4" t="n">
-        <v>16764.53333333333</v>
+        <v>16110.46666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>14227.85</v>
+        <v>13037</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5234.966666666666</v>
+        <v>9845.766666666666</v>
       </c>
       <c r="B5" t="n">
-        <v>9964.35</v>
+        <v>10191.45</v>
       </c>
       <c r="C5" t="n">
-        <v>92050.93333333332</v>
+        <v>8860.85</v>
       </c>
       <c r="D5" t="n">
-        <v>8852.799999999999</v>
+        <v>8551.533333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>8981.883333333333</v>
+        <v>7637.116666666667</v>
       </c>
       <c r="F5" t="n">
-        <v>912.15</v>
+        <v>672.1666666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>331.2333333333333</v>
+        <v>255.8333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>25599.68333333333</v>
+        <v>25572.08333333333</v>
       </c>
       <c r="B6" t="n">
-        <v>25041.31666666667</v>
+        <v>24900.71666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>18759.98333333333</v>
+        <v>25764.68333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>23623.23333333333</v>
+        <v>23160.93333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>24043.41666666667</v>
+        <v>21682.56666666667</v>
       </c>
       <c r="F6" t="n">
-        <v>10435.78333333333</v>
+        <v>9378.6</v>
       </c>
       <c r="G6" t="n">
-        <v>10232.56666666667</v>
+        <v>7458.883333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5729.983333333334</v>
+        <v>7773.7</v>
       </c>
       <c r="B7" t="n">
-        <v>6309.666666666667</v>
+        <v>7542.45</v>
       </c>
       <c r="C7" t="n">
-        <v>6757.516666666666</v>
+        <v>8102.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6836.15</v>
+        <v>104803.9333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>7612.583333333333</v>
+        <v>7318.266666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>6551.366666666667</v>
+        <v>4797.9</v>
       </c>
       <c r="G7" t="n">
-        <v>7439.416666666667</v>
+        <v>6371.083333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6297.65</v>
+        <v>70571.86666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>6369.266666666666</v>
+        <v>6663.266666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>9206.233333333334</v>
+        <v>6968.183333333333</v>
       </c>
       <c r="D8" t="n">
-        <v>6457.433333333333</v>
+        <v>70632.68333333333</v>
       </c>
       <c r="E8" t="n">
-        <v>6645.633333333333</v>
+        <v>6303.116666666667</v>
       </c>
       <c r="F8" t="n">
-        <v>4402.216666666666</v>
+        <v>3531.483333333333</v>
       </c>
       <c r="G8" t="n">
-        <v>12317.5</v>
+        <v>11429.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17175.31666666667</v>
+        <v>16781.78333333333</v>
       </c>
       <c r="B9" t="n">
-        <v>19753.83333333333</v>
+        <v>15793</v>
       </c>
       <c r="C9" t="n">
-        <v>16566.85</v>
+        <v>15950.4</v>
       </c>
       <c r="D9" t="n">
-        <v>15245.05</v>
+        <v>16117.96666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>15624.43333333333</v>
+        <v>13414.11666666667</v>
       </c>
       <c r="F9" t="n">
-        <v>5077.433333333333</v>
+        <v>53947.7</v>
       </c>
       <c r="G9" t="n">
-        <v>9232.6</v>
+        <v>6935.533333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2350.35</v>
+        <v>2672.233333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>2594.933333333333</v>
+        <v>2560.666666666667</v>
       </c>
       <c r="C10" t="n">
-        <v>3457.666666666667</v>
+        <v>2001.6</v>
       </c>
       <c r="D10" t="n">
-        <v>3134.616666666667</v>
+        <v>3933.666666666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1670.566666666667</v>
+        <v>63117.56666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>351.6833333333333</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>1438.883333333333</v>
+        <v>708.3333333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20059.26666666666</v>
+        <v>23941.21666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>20854.63333333333</v>
+        <v>23335.38333333333</v>
       </c>
       <c r="C11" t="n">
-        <v>22300.95</v>
+        <v>23212.48333333333</v>
       </c>
       <c r="D11" t="n">
-        <v>21410.56666666667</v>
+        <v>21808.91666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>22859.66666666667</v>
+        <v>20533.4</v>
       </c>
       <c r="F11" t="n">
-        <v>5231.533333333334</v>
+        <v>4609.716666666666</v>
       </c>
       <c r="G11" t="n">
-        <v>6140.833333333333</v>
+        <v>5275.216666666666</v>
       </c>
     </row>
   </sheetData>
@@ -783,209 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>13703</v>
+        <v>19116</v>
       </c>
       <c r="B3" t="n">
-        <v>17317</v>
+        <v>17318</v>
       </c>
       <c r="C3" t="n">
-        <v>17002</v>
+        <v>16761</v>
       </c>
       <c r="D3" t="n">
-        <v>17608</v>
+        <v>16517</v>
       </c>
       <c r="E3" t="n">
-        <v>16729</v>
+        <v>15718</v>
       </c>
       <c r="F3" t="n">
-        <v>13664</v>
+        <v>12145</v>
       </c>
       <c r="G3" t="n">
-        <v>13153</v>
+        <v>12303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22717</v>
+        <v>30655</v>
       </c>
       <c r="B4" t="n">
-        <v>30603</v>
+        <v>29883</v>
       </c>
       <c r="C4" t="n">
-        <v>30437</v>
+        <v>28897</v>
       </c>
       <c r="D4" t="n">
-        <v>30276</v>
+        <v>29005</v>
       </c>
       <c r="E4" t="n">
-        <v>29527</v>
+        <v>27296</v>
       </c>
       <c r="F4" t="n">
-        <v>21413</v>
+        <v>19556</v>
       </c>
       <c r="G4" t="n">
-        <v>17988</v>
+        <v>16756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6792</v>
+        <v>10155</v>
       </c>
       <c r="B5" t="n">
-        <v>10310</v>
+        <v>12364</v>
       </c>
       <c r="C5" t="n">
-        <v>50801</v>
+        <v>10200</v>
       </c>
       <c r="D5" t="n">
-        <v>9764</v>
+        <v>9416</v>
       </c>
       <c r="E5" t="n">
-        <v>9656</v>
+        <v>8375</v>
       </c>
       <c r="F5" t="n">
-        <v>3587</v>
+        <v>3053</v>
       </c>
       <c r="G5" t="n">
-        <v>2833</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24935</v>
+        <v>26754</v>
       </c>
       <c r="B6" t="n">
-        <v>28475</v>
+        <v>25523</v>
       </c>
       <c r="C6" t="n">
-        <v>31345</v>
+        <v>25667</v>
       </c>
       <c r="D6" t="n">
-        <v>28404</v>
+        <v>26709</v>
       </c>
       <c r="E6" t="n">
-        <v>24291</v>
+        <v>22262</v>
       </c>
       <c r="F6" t="n">
-        <v>16106</v>
+        <v>15113</v>
       </c>
       <c r="G6" t="n">
-        <v>22021</v>
+        <v>15288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>13236</v>
+        <v>15623</v>
       </c>
       <c r="B7" t="n">
-        <v>16428</v>
+        <v>14882</v>
       </c>
       <c r="C7" t="n">
-        <v>16784</v>
+        <v>14750</v>
       </c>
       <c r="D7" t="n">
-        <v>19146</v>
+        <v>15058</v>
       </c>
       <c r="E7" t="n">
-        <v>13582</v>
+        <v>13358</v>
       </c>
       <c r="F7" t="n">
-        <v>13077</v>
+        <v>11479</v>
       </c>
       <c r="G7" t="n">
-        <v>17885</v>
+        <v>14505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>15003</v>
+        <v>17009</v>
       </c>
       <c r="B8" t="n">
-        <v>19802</v>
+        <v>16063</v>
       </c>
       <c r="C8" t="n">
-        <v>20901</v>
+        <v>16423</v>
       </c>
       <c r="D8" t="n">
-        <v>17816</v>
+        <v>17054</v>
       </c>
       <c r="E8" t="n">
-        <v>15277</v>
+        <v>14566</v>
       </c>
       <c r="F8" t="n">
-        <v>9796</v>
+        <v>9123</v>
       </c>
       <c r="G8" t="n">
-        <v>20311</v>
+        <v>16825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>19131</v>
+        <v>18514</v>
       </c>
       <c r="B9" t="n">
-        <v>24877</v>
+        <v>17766</v>
       </c>
       <c r="C9" t="n">
-        <v>18952</v>
+        <v>17639</v>
       </c>
       <c r="D9" t="n">
-        <v>19052</v>
+        <v>18006</v>
       </c>
       <c r="E9" t="n">
-        <v>17619</v>
+        <v>15344</v>
       </c>
       <c r="F9" t="n">
-        <v>10817</v>
+        <v>14400</v>
       </c>
       <c r="G9" t="n">
-        <v>12345</v>
+        <v>9836</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5335</v>
+        <v>5069</v>
       </c>
       <c r="B10" t="n">
-        <v>7228</v>
+        <v>4948</v>
       </c>
       <c r="C10" t="n">
-        <v>6447</v>
+        <v>4539</v>
       </c>
       <c r="D10" t="n">
-        <v>8086</v>
+        <v>7341</v>
       </c>
       <c r="E10" t="n">
-        <v>4325</v>
+        <v>4347</v>
       </c>
       <c r="F10" t="n">
-        <v>3052</v>
+        <v>2782</v>
       </c>
       <c r="G10" t="n">
-        <v>5324</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>25530</v>
+        <v>30638</v>
       </c>
       <c r="B11" t="n">
-        <v>32094</v>
+        <v>29830</v>
       </c>
       <c r="C11" t="n">
-        <v>34348</v>
+        <v>29365</v>
       </c>
       <c r="D11" t="n">
-        <v>34683</v>
+        <v>29083</v>
       </c>
       <c r="E11" t="n">
-        <v>28429</v>
+        <v>26037</v>
       </c>
       <c r="F11" t="n">
-        <v>10790</v>
+        <v>10614</v>
       </c>
       <c r="G11" t="n">
-        <v>15188</v>
+        <v>12443</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-06 09:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-13 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10689</v>
+        <v>10212</v>
       </c>
       <c r="C2" t="n">
-        <v>6027.566666666667</v>
+        <v>5847.833333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-06 11:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-13 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4087</v>
+        <v>3865</v>
       </c>
       <c r="C3" t="n">
-        <v>1422.7</v>
+        <v>1535.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-06 19:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-13 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18918</v>
+        <v>17881</v>
       </c>
       <c r="C4" t="n">
-        <v>12180.95</v>
+        <v>11065.06666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-05-06 20:30:00</t>
+          <t>ATV HD 2023-05-13 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23065</v>
+        <v>27247</v>
       </c>
       <c r="C5" t="n">
-        <v>18786.03333333333</v>
+        <v>31357.78333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-06 22:00:00</t>
+          <t>LATINA HD 2023-05-13 22:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12453</v>
+        <v>13782</v>
       </c>
       <c r="C6" t="n">
-        <v>8685.433333333332</v>
+        <v>9928</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-06 21:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-13 21:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20152</v>
+        <v>20312</v>
       </c>
       <c r="C7" t="n">
-        <v>9938.6</v>
+        <v>9180.566666666668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-07 20:00:00</t>
+          <t>LATINA HD 2023-05-14 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23469</v>
+        <v>18261</v>
       </c>
       <c r="C8" t="n">
-        <v>10983.45</v>
+        <v>9504.950000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-07 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-14 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28561</v>
+        <v>21765</v>
       </c>
       <c r="C9" t="n">
-        <v>14151.45</v>
+        <v>11452.13333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-05-07 19:50:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-05-14 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18915</v>
+        <v>14832</v>
       </c>
       <c r="C10" t="n">
-        <v>7297.416666666667</v>
+        <v>6202.516666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-05-07 21:30:00</t>
+          <t>M DEPORTES HD 2023-05-14 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27319</v>
+        <v>5736</v>
       </c>
       <c r="C11" t="n">
-        <v>3465.7</v>
+        <v>1658.616666666667</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,209 +497,48 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15673.63333333333</v>
+        <v>10188.91666666667</v>
       </c>
       <c r="B3" t="n">
-        <v>139525.8166666667</v>
+        <v>10187.1</v>
       </c>
       <c r="C3" t="n">
-        <v>14765.83333333333</v>
+        <v>11132.65</v>
       </c>
       <c r="D3" t="n">
-        <v>14704.45</v>
+        <v>10132.53333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>13657</v>
+        <v>9644.433333333332</v>
       </c>
       <c r="F3" t="n">
-        <v>9942.983333333334</v>
+        <v>4563.45</v>
       </c>
       <c r="G3" t="n">
-        <v>11724.56666666667</v>
+        <v>7698.116666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31340.75</v>
+        <v>10529.76666666667</v>
       </c>
       <c r="B4" t="n">
-        <v>30514.76666666666</v>
+        <v>11658.55</v>
       </c>
       <c r="C4" t="n">
-        <v>29287.65</v>
+        <v>11303.58333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>29386.88333333333</v>
+        <v>11975.05</v>
       </c>
       <c r="E4" t="n">
-        <v>27483.7</v>
+        <v>10414.25</v>
       </c>
       <c r="F4" t="n">
-        <v>16110.46666666667</v>
+        <v>4401.783333333334</v>
       </c>
       <c r="G4" t="n">
-        <v>13037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9845.766666666666</v>
-      </c>
-      <c r="B5" t="n">
-        <v>10191.45</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8860.85</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8551.533333333333</v>
-      </c>
-      <c r="E5" t="n">
-        <v>7637.116666666667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>672.1666666666666</v>
-      </c>
-      <c r="G5" t="n">
-        <v>255.8333333333333</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>25572.08333333333</v>
-      </c>
-      <c r="B6" t="n">
-        <v>24900.71666666667</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25764.68333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>23160.93333333333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>21682.56666666667</v>
-      </c>
-      <c r="F6" t="n">
-        <v>9378.6</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7458.883333333333</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>7773.7</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7542.45</v>
-      </c>
-      <c r="C7" t="n">
-        <v>8102.15</v>
-      </c>
-      <c r="D7" t="n">
-        <v>104803.9333333333</v>
-      </c>
-      <c r="E7" t="n">
-        <v>7318.266666666666</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4797.9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>6371.083333333333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>70571.86666666667</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6663.266666666666</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6968.183333333333</v>
-      </c>
-      <c r="D8" t="n">
-        <v>70632.68333333333</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6303.116666666667</v>
-      </c>
-      <c r="F8" t="n">
-        <v>3531.483333333333</v>
-      </c>
-      <c r="G8" t="n">
-        <v>11429.25</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>16781.78333333333</v>
-      </c>
-      <c r="B9" t="n">
-        <v>15793</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15950.4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>16117.96666666667</v>
-      </c>
-      <c r="E9" t="n">
-        <v>13414.11666666667</v>
-      </c>
-      <c r="F9" t="n">
-        <v>53947.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6935.533333333334</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2672.233333333333</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2560.666666666667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2001.6</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3933.666666666667</v>
-      </c>
-      <c r="E10" t="n">
-        <v>63117.56666666667</v>
-      </c>
-      <c r="F10" t="n">
-        <v>98.84999999999999</v>
-      </c>
-      <c r="G10" t="n">
-        <v>708.3333333333334</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>23941.21666666667</v>
-      </c>
-      <c r="B11" t="n">
-        <v>23335.38333333333</v>
-      </c>
-      <c r="C11" t="n">
-        <v>23212.48333333333</v>
-      </c>
-      <c r="D11" t="n">
-        <v>21808.91666666667</v>
-      </c>
-      <c r="E11" t="n">
-        <v>20533.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>4609.716666666666</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5275.216666666666</v>
+        <v>8193.316666666668</v>
       </c>
     </row>
   </sheetData>
@@ -713,7 +552,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,209 +622,48 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>19116</v>
+        <v>16454</v>
       </c>
       <c r="B3" t="n">
-        <v>17318</v>
+        <v>15324</v>
       </c>
       <c r="C3" t="n">
-        <v>16761</v>
+        <v>15220</v>
       </c>
       <c r="D3" t="n">
-        <v>16517</v>
+        <v>16351</v>
       </c>
       <c r="E3" t="n">
-        <v>15718</v>
+        <v>13656</v>
       </c>
       <c r="F3" t="n">
-        <v>12145</v>
+        <v>11464</v>
       </c>
       <c r="G3" t="n">
-        <v>12303</v>
+        <v>14623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30655</v>
+        <v>16812</v>
       </c>
       <c r="B4" t="n">
-        <v>29883</v>
+        <v>16459</v>
       </c>
       <c r="C4" t="n">
-        <v>28897</v>
+        <v>16300</v>
       </c>
       <c r="D4" t="n">
-        <v>29005</v>
+        <v>16635</v>
       </c>
       <c r="E4" t="n">
-        <v>27296</v>
+        <v>18787</v>
       </c>
       <c r="F4" t="n">
-        <v>19556</v>
+        <v>11647</v>
       </c>
       <c r="G4" t="n">
-        <v>16756</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>10155</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12364</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10200</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9416</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8375</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3053</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>26754</v>
-      </c>
-      <c r="B6" t="n">
-        <v>25523</v>
-      </c>
-      <c r="C6" t="n">
-        <v>25667</v>
-      </c>
-      <c r="D6" t="n">
-        <v>26709</v>
-      </c>
-      <c r="E6" t="n">
-        <v>22262</v>
-      </c>
-      <c r="F6" t="n">
-        <v>15113</v>
-      </c>
-      <c r="G6" t="n">
-        <v>15288</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15623</v>
-      </c>
-      <c r="B7" t="n">
-        <v>14882</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14750</v>
-      </c>
-      <c r="D7" t="n">
-        <v>15058</v>
-      </c>
-      <c r="E7" t="n">
-        <v>13358</v>
-      </c>
-      <c r="F7" t="n">
-        <v>11479</v>
-      </c>
-      <c r="G7" t="n">
-        <v>14505</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>17009</v>
-      </c>
-      <c r="B8" t="n">
-        <v>16063</v>
-      </c>
-      <c r="C8" t="n">
-        <v>16423</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17054</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14566</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9123</v>
-      </c>
-      <c r="G8" t="n">
-        <v>16825</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>18514</v>
-      </c>
-      <c r="B9" t="n">
-        <v>17766</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17639</v>
-      </c>
-      <c r="D9" t="n">
-        <v>18006</v>
-      </c>
-      <c r="E9" t="n">
-        <v>15344</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14400</v>
-      </c>
-      <c r="G9" t="n">
-        <v>9836</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5069</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4948</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4539</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7341</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4347</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2782</v>
-      </c>
-      <c r="G10" t="n">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>30638</v>
-      </c>
-      <c r="B11" t="n">
-        <v>29830</v>
-      </c>
-      <c r="C11" t="n">
-        <v>29365</v>
-      </c>
-      <c r="D11" t="n">
-        <v>29083</v>
-      </c>
-      <c r="E11" t="n">
-        <v>26037</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10614</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12443</v>
+        <v>17762</v>
       </c>
     </row>
   </sheetData>
@@ -1027,131 +705,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-13 09:00:00</t>
+          <t>LATINA HD 2023-05-16 20:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10212</v>
+        <v>16459</v>
       </c>
       <c r="C2" t="n">
-        <v>5847.833333333333</v>
+        <v>11658.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-13 11:00:00</t>
+          <t>LATINA HD 2023-05-17 20:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3865</v>
+        <v>16300</v>
       </c>
       <c r="C3" t="n">
-        <v>1535.4</v>
+        <v>11303.58333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-13 19:00:00</t>
+          <t>LATINA HD 2023-05-18 20:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17881</v>
+        <v>16635</v>
       </c>
       <c r="C4" t="n">
-        <v>11065.06666666667</v>
+        <v>11975.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ATV HD 2023-05-13 20:30:00</t>
+          <t>LATINA HD 2023-05-19 20:00:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27247</v>
+        <v>18787</v>
       </c>
       <c r="C5" t="n">
-        <v>31357.78333333333</v>
+        <v>10414.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-13 22:00:00</t>
+          <t>LATINA HD 2023-05-20 20:00:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13782</v>
+        <v>11647</v>
       </c>
       <c r="C6" t="n">
-        <v>9928</v>
+        <v>4401.783333333334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-13 21:00:00</t>
+          <t>LATINA HD 2023-05-21 20:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20312</v>
+        <v>17762</v>
       </c>
       <c r="C7" t="n">
-        <v>9180.566666666668</v>
+        <v>8193.316666666668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-14 20:00:00</t>
+          <t>LATINA HD 2023-05-13 22:30:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18261</v>
+        <v>10536</v>
       </c>
       <c r="C8" t="n">
-        <v>9504.950000000001</v>
+        <v>7501.133333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-14 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-13 22:30:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21765</v>
+        <v>10455</v>
       </c>
       <c r="C9" t="n">
-        <v>11452.13333333333</v>
+        <v>4079.833333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PANAMERICANA TELEVISION HD 2023-05-14 19:50:00</t>
+          <t>LATINA HD 2023-05-20 22:30:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14832</v>
+        <v>10233</v>
       </c>
       <c r="C10" t="n">
-        <v>6202.516666666666</v>
+        <v>7937.966666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>M DEPORTES HD 2023-05-14 21:30:00</t>
+          <t>AMERICA TELEVISION HD 2023-05-20 22:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5736</v>
+        <v>9280</v>
       </c>
       <c r="C11" t="n">
-        <v>1658.616666666667</v>
+        <v>3386.233333333333</v>
       </c>
     </row>
   </sheetData>

--- a/src/CUADRO_DINA.xlsx
+++ b/src/CUADRO_DINA.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,48 +497,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10188.91666666667</v>
+        <v>15105.93333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>10187.1</v>
+        <v>15239.56666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>11132.65</v>
+        <v>15326.58333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>10132.53333333333</v>
+        <v>15244.06666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>9644.433333333332</v>
+        <v>14658.9</v>
       </c>
       <c r="F3" t="n">
-        <v>4563.45</v>
+        <v>9823.549999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>7698.116666666667</v>
+        <v>10401.56666666667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10529.76666666667</v>
+        <v>29699.3</v>
       </c>
       <c r="B4" t="n">
-        <v>11658.55</v>
+        <v>31200.61666666666</v>
       </c>
       <c r="C4" t="n">
-        <v>11303.58333333333</v>
+        <v>32529.16666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>11975.05</v>
+        <v>31519.15</v>
       </c>
       <c r="E4" t="n">
-        <v>10414.25</v>
+        <v>29674.6</v>
       </c>
       <c r="F4" t="n">
-        <v>4401.783333333334</v>
+        <v>14975.08333333333</v>
       </c>
       <c r="G4" t="n">
-        <v>8193.316666666668</v>
+        <v>12176.46666666667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11265.45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11362.96666666667</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10731.38333333333</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74712.33333333333</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9105.25</v>
+      </c>
+      <c r="F5" t="n">
+        <v>507.6666666666667</v>
+      </c>
+      <c r="G5" t="n">
+        <v>412.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22261.91666666667</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23433.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>22208.53333333333</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20071.08333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>16977.93333333333</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9700.950000000001</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9364.166666666666</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>13876.1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14276.71666666667</v>
+      </c>
+      <c r="C7" t="n">
+        <v>99782.76666666666</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14519.86666666667</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12800.85</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4852.65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8347.450000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>74764.3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7019.116666666667</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6488.85</v>
+      </c>
+      <c r="D8" t="n">
+        <v>6246.433333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6028.666666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3414.866666666667</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9580.366666666669</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17399.26666666667</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20216.51666666666</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18621.85</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16320.75</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14240.58333333333</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5326.083333333333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8084.633333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2766.25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2181.066666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>68778.33333333333</v>
+      </c>
+      <c r="D10" t="n">
+        <v>51524.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1489.066666666667</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60387.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>461.65</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>19092.83333333333</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18716.18333333333</v>
+      </c>
+      <c r="C11" t="n">
+        <v>18791.55</v>
+      </c>
+      <c r="D11" t="n">
+        <v>18088.33333333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15002.96666666667</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3412.55</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4823.35</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,48 +783,209 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16454</v>
+        <v>17509</v>
       </c>
       <c r="B3" t="n">
-        <v>15324</v>
+        <v>16049</v>
       </c>
       <c r="C3" t="n">
-        <v>15220</v>
+        <v>16381</v>
       </c>
       <c r="D3" t="n">
-        <v>16351</v>
+        <v>16008</v>
       </c>
       <c r="E3" t="n">
-        <v>13656</v>
+        <v>15269</v>
       </c>
       <c r="F3" t="n">
-        <v>11464</v>
+        <v>11345</v>
       </c>
       <c r="G3" t="n">
-        <v>14623</v>
+        <v>12868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16812</v>
+        <v>28416</v>
       </c>
       <c r="B4" t="n">
-        <v>16459</v>
+        <v>26886</v>
       </c>
       <c r="C4" t="n">
-        <v>16300</v>
+        <v>27368</v>
       </c>
       <c r="D4" t="n">
-        <v>16635</v>
+        <v>26738</v>
       </c>
       <c r="E4" t="n">
-        <v>18787</v>
+        <v>25525</v>
       </c>
       <c r="F4" t="n">
-        <v>11647</v>
+        <v>17441</v>
       </c>
       <c r="G4" t="n">
-        <v>17762</v>
+        <v>16330</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10308</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10856</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10643</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10250</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9241</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2440</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>23961</v>
+      </c>
+      <c r="B6" t="n">
+        <v>23704</v>
+      </c>
+      <c r="C6" t="n">
+        <v>23016</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22366</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21613</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13540</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16557</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>18357</v>
+      </c>
+      <c r="B7" t="n">
+        <v>18398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>18022</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18260</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18215</v>
+      </c>
+      <c r="F7" t="n">
+        <v>10456</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15557</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>18143</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15971</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15308</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14547</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15303</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15135</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>18747</v>
+      </c>
+      <c r="B9" t="n">
+        <v>20069</v>
+      </c>
+      <c r="C9" t="n">
+        <v>19169</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18390</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16600</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9922</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5132</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4246</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4168</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4124</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4440</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2090</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2914</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>24671</v>
+      </c>
+      <c r="B11" t="n">
+        <v>25039</v>
+      </c>
+      <c r="C11" t="n">
+        <v>23367</v>
+      </c>
+      <c r="D11" t="n">
+        <v>22571</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21072</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7480</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10705</v>
       </c>
     </row>
   </sheetData>
@@ -705,131 +1027,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-16 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-06-03 09:00:00</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16459</v>
+        <v>9364</v>
       </c>
       <c r="C2" t="n">
-        <v>11658.55</v>
+        <v>63022.28333333333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-17 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-06-03 11:00:00</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16300</v>
+        <v>3349</v>
       </c>
       <c r="C3" t="n">
-        <v>11303.58333333333</v>
+        <v>20638.53333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-18 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-06-03 19:00:00</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16635</v>
+        <v>15805</v>
       </c>
       <c r="C4" t="n">
-        <v>11975.05</v>
+        <v>11068.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-19 20:00:00</t>
+          <t>ATV HD 2023-06-03 20:30:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18787</v>
+        <v>20591</v>
       </c>
       <c r="C5" t="n">
-        <v>10414.25</v>
+        <v>18898.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-20 20:00:00</t>
+          <t>LATINA HD 2023-06-03 22:30:00</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11647</v>
+        <v>10365</v>
       </c>
       <c r="C6" t="n">
-        <v>4401.783333333334</v>
+        <v>48751.18333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-21 20:00:00</t>
+          <t>AMERICA TELEVISION HD 2023-06-03 22:00:00</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17762</v>
+        <v>9979</v>
       </c>
       <c r="C7" t="n">
-        <v>8193.316666666668</v>
+        <v>4240.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-13 22:30:00</t>
+          <t>LATINA HD 2023-06-04 20:00:00</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10536</v>
+        <v>19424</v>
       </c>
       <c r="C8" t="n">
-        <v>7501.133333333333</v>
+        <v>10245.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-13 22:30:00</t>
+          <t>AMERICA TELEVISION HD 2023-06-04 20:00:00</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10455</v>
+        <v>22573</v>
       </c>
       <c r="C9" t="n">
-        <v>4079.833333333333</v>
+        <v>13045.53333333333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LATINA HD 2023-05-20 22:30:00</t>
+          <t>PANAMERICANA TELEVISION HD 2023-06-04 19:50:00</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10233</v>
+        <v>15044</v>
       </c>
       <c r="C10" t="n">
-        <v>7937.966666666666</v>
+        <v>5909.866666666667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMERICA TELEVISION HD 2023-05-20 22:30:00</t>
+          <t>M DEPORTES HD 2023-06-04 21:30:00</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9280</v>
+        <v>4192</v>
       </c>
       <c r="C11" t="n">
-        <v>3386.233333333333</v>
+        <v>1074.4</v>
       </c>
     </row>
   </sheetData>
